--- a/Code/Results/Cases/Case_1_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.830186201091386</v>
+        <v>5.683658814236868</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.177509589952823</v>
+        <v>8.279395454628119</v>
       </c>
       <c r="E2">
-        <v>10.43893041628691</v>
+        <v>13.30210991916849</v>
       </c>
       <c r="F2">
-        <v>29.04772377471377</v>
+        <v>37.11039070033118</v>
       </c>
       <c r="G2">
-        <v>36.45672317134488</v>
+        <v>42.02745061849008</v>
       </c>
       <c r="H2">
-        <v>11.46625132211052</v>
+        <v>17.40151863775981</v>
       </c>
       <c r="I2">
-        <v>12.91006711573144</v>
+        <v>20.36751465146092</v>
       </c>
       <c r="J2">
-        <v>6.500694057651245</v>
+        <v>10.07129936889861</v>
       </c>
       <c r="K2">
-        <v>18.53787724246488</v>
+        <v>15.10813732258622</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.23006355980584</v>
+        <v>18.87054176394461</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.450433220428973</v>
+        <v>5.574485982242754</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.911242169546969</v>
+        <v>8.246043383262229</v>
       </c>
       <c r="E3">
-        <v>10.00055283589814</v>
+        <v>13.25377573637131</v>
       </c>
       <c r="F3">
-        <v>28.11935899474675</v>
+        <v>37.06822747821502</v>
       </c>
       <c r="G3">
-        <v>35.05808353387684</v>
+        <v>41.90373264459933</v>
       </c>
       <c r="H3">
-        <v>11.33849972524415</v>
+        <v>17.4360548641228</v>
       </c>
       <c r="I3">
-        <v>13.18669318818424</v>
+        <v>20.46446283322906</v>
       </c>
       <c r="J3">
-        <v>6.380550170287227</v>
+        <v>10.07863977131413</v>
       </c>
       <c r="K3">
-        <v>17.27004480006429</v>
+        <v>14.77623572043987</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.45752299697025</v>
+        <v>18.93575989485557</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.204715764581337</v>
+        <v>5.507272574952419</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.74427389421391</v>
+        <v>8.226798883426534</v>
       </c>
       <c r="E4">
-        <v>9.728507178023976</v>
+        <v>13.22683167574835</v>
       </c>
       <c r="F4">
-        <v>27.56397586634125</v>
+        <v>37.0525373902735</v>
       </c>
       <c r="G4">
-        <v>34.21563030127138</v>
+        <v>41.84171940910331</v>
       </c>
       <c r="H4">
-        <v>11.26962714475502</v>
+        <v>17.46087381353415</v>
       </c>
       <c r="I4">
-        <v>13.36259477391427</v>
+        <v>20.52720030827601</v>
       </c>
       <c r="J4">
-        <v>6.309919518807133</v>
+        <v>10.08485727369825</v>
       </c>
       <c r="K4">
-        <v>16.44832638898508</v>
+        <v>14.57194764125702</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.59975277442289</v>
+        <v>18.97762182878245</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.101463505078709</v>
+        <v>5.479874969264014</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.675448105901175</v>
+        <v>8.219272242430566</v>
       </c>
       <c r="E5">
-        <v>9.617069330771937</v>
+        <v>13.21654669785974</v>
       </c>
       <c r="F5">
-        <v>27.34153125522305</v>
+        <v>37.04870973957625</v>
       </c>
       <c r="G5">
-        <v>33.87679603850886</v>
+        <v>41.81996873482925</v>
       </c>
       <c r="H5">
-        <v>11.24389553795872</v>
+        <v>17.47189424884663</v>
       </c>
       <c r="I5">
-        <v>13.43579128871898</v>
+        <v>20.55357519135529</v>
       </c>
       <c r="J5">
-        <v>6.281932784748916</v>
+        <v>10.08782104089962</v>
       </c>
       <c r="K5">
-        <v>16.10249114348354</v>
+        <v>14.48869610037789</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.65839441510013</v>
+        <v>18.99513952327376</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.084131289140062</v>
+        <v>5.475326282209581</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.663975106032983</v>
+        <v>8.218041664787084</v>
       </c>
       <c r="E6">
-        <v>9.598534976602236</v>
+        <v>13.21488106517028</v>
       </c>
       <c r="F6">
-        <v>27.30483459675294</v>
+        <v>37.04822915923859</v>
       </c>
       <c r="G6">
-        <v>33.82081419288629</v>
+        <v>41.81656993103298</v>
       </c>
       <c r="H6">
-        <v>11.23976166382247</v>
+        <v>17.47377886860014</v>
       </c>
       <c r="I6">
-        <v>13.44803688462823</v>
+        <v>20.55800361620473</v>
       </c>
       <c r="J6">
-        <v>6.277333848137691</v>
+        <v>10.0883391451227</v>
       </c>
       <c r="K6">
-        <v>16.04439958959792</v>
+        <v>14.47487575456184</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.66817400709918</v>
+        <v>18.99807606742038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.203335849929321</v>
+        <v>5.506903061341346</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.74334873538271</v>
+        <v>8.226696091582978</v>
       </c>
       <c r="E7">
-        <v>9.72700641633554</v>
+        <v>13.22669014564817</v>
       </c>
       <c r="F7">
-        <v>27.56095993210889</v>
+        <v>37.05247537831821</v>
       </c>
       <c r="G7">
-        <v>34.21104205128007</v>
+        <v>41.84141180605574</v>
       </c>
       <c r="H7">
-        <v>11.26927076390727</v>
+        <v>17.46101877156688</v>
       </c>
       <c r="I7">
-        <v>13.36357579952322</v>
+        <v>20.52755273224425</v>
       </c>
       <c r="J7">
-        <v>6.309538849591724</v>
+        <v>10.08489550282986</v>
       </c>
       <c r="K7">
-        <v>16.44370691285996</v>
+        <v>14.57082472699112</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.60054082933184</v>
+        <v>18.97785621960525</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.701869629584204</v>
+        <v>5.646076002329227</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.086472752930949</v>
+        <v>8.267642923506267</v>
       </c>
       <c r="E8">
-        <v>10.2884579339725</v>
+        <v>13.2848818085804</v>
       </c>
       <c r="F8">
-        <v>28.72470250433411</v>
+        <v>37.09373787276891</v>
       </c>
       <c r="G8">
-        <v>35.97129859462373</v>
+        <v>41.98190618429698</v>
       </c>
       <c r="H8">
-        <v>11.4201751400547</v>
+        <v>17.41267548972939</v>
       </c>
       <c r="I8">
-        <v>13.00418682627049</v>
+        <v>20.40027683290328</v>
       </c>
       <c r="J8">
-        <v>6.458621392369713</v>
+        <v>10.07347534959448</v>
       </c>
       <c r="K8">
-        <v>18.10964681847375</v>
+        <v>14.99387396143098</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.30798075686256</v>
+        <v>18.89265263021509</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.578852449469049</v>
+        <v>5.91594504241557</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.728422177489982</v>
+        <v>8.357477621116194</v>
       </c>
       <c r="E9">
-        <v>11.36116342795743</v>
+        <v>13.4203125374924</v>
       </c>
       <c r="F9">
-        <v>31.11484903729889</v>
+        <v>37.25539894736926</v>
       </c>
       <c r="G9">
-        <v>39.53822541789794</v>
+        <v>42.36733683780901</v>
       </c>
       <c r="H9">
-        <v>11.79502371669385</v>
+        <v>17.34663660016767</v>
       </c>
       <c r="I9">
-        <v>12.34790225864732</v>
+        <v>20.17609965541263</v>
       </c>
       <c r="J9">
-        <v>6.775565745940429</v>
+        <v>10.06464980082853</v>
       </c>
       <c r="K9">
-        <v>21.03800743256836</v>
+        <v>15.81430378368819</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.75290359647414</v>
+        <v>18.7399205681546</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.160886446835875</v>
+        <v>6.110287215314509</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.177652057759282</v>
+        <v>8.428936928284569</v>
       </c>
       <c r="E10">
-        <v>12.1262130265109</v>
+        <v>13.53226306894778</v>
       </c>
       <c r="F10">
-        <v>32.92755866398969</v>
+        <v>37.42302171568416</v>
       </c>
       <c r="G10">
-        <v>42.21336833436798</v>
+        <v>42.71617956763777</v>
       </c>
       <c r="H10">
-        <v>12.12248045437788</v>
+        <v>17.31576619978287</v>
       </c>
       <c r="I10">
-        <v>11.89622323525967</v>
+        <v>20.02679364886821</v>
       </c>
       <c r="J10">
-        <v>7.023066056059142</v>
+        <v>10.06642922879455</v>
       </c>
       <c r="K10">
-        <v>22.99008787020594</v>
+        <v>16.40485201988621</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.35380116514852</v>
+        <v>18.63635660974951</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.412063241861519</v>
+        <v>6.19743676124112</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.376631532058797</v>
+        <v>8.462548628103788</v>
       </c>
       <c r="E11">
-        <v>12.46843042065142</v>
+        <v>13.58576424427437</v>
       </c>
       <c r="F11">
-        <v>33.76317710597712</v>
+        <v>37.50975718487668</v>
       </c>
       <c r="G11">
-        <v>43.44012647105386</v>
+        <v>42.88875226818151</v>
       </c>
       <c r="H11">
-        <v>12.28356370558643</v>
+        <v>17.30557513893325</v>
       </c>
       <c r="I11">
-        <v>11.69769248444609</v>
+        <v>19.96219422534584</v>
       </c>
       <c r="J11">
-        <v>7.138796370043582</v>
+        <v>10.06902866499</v>
       </c>
       <c r="K11">
-        <v>23.83650345335444</v>
+        <v>16.66956432868316</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.17348425910906</v>
+        <v>18.59109896139172</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.505221073678261</v>
+        <v>6.230225509238973</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.451177072112637</v>
+        <v>8.475427975701935</v>
       </c>
       <c r="E12">
-        <v>12.59714222887919</v>
+        <v>13.60638179529112</v>
       </c>
       <c r="F12">
-        <v>34.08112481632746</v>
+        <v>37.54409447838453</v>
       </c>
       <c r="G12">
-        <v>43.90599843823505</v>
+        <v>42.95605810749375</v>
       </c>
       <c r="H12">
-        <v>12.34637091600476</v>
+        <v>17.30227126196829</v>
       </c>
       <c r="I12">
-        <v>11.62355130789192</v>
+        <v>19.93820824504147</v>
       </c>
       <c r="J12">
-        <v>7.183071558535708</v>
+        <v>10.07026975836167</v>
       </c>
       <c r="K12">
-        <v>24.15118462037884</v>
+        <v>16.76913991145685</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.10532186283915</v>
+        <v>18.5742260764844</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.485244926690861</v>
+        <v>6.223173824145987</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.435158478951494</v>
+        <v>8.472647569294216</v>
       </c>
       <c r="E13">
-        <v>12.5694613937202</v>
+        <v>13.60192572603251</v>
       </c>
       <c r="F13">
-        <v>34.01258217837923</v>
+        <v>37.53663321338819</v>
       </c>
       <c r="G13">
-        <v>43.8056061945048</v>
+        <v>42.94147626399247</v>
       </c>
       <c r="H13">
-        <v>12.33276276169546</v>
+        <v>17.30295809691356</v>
       </c>
       <c r="I13">
-        <v>11.63947201616185</v>
+        <v>19.94335288301977</v>
       </c>
       <c r="J13">
-        <v>7.173516039358399</v>
+        <v>10.06999105984407</v>
       </c>
       <c r="K13">
-        <v>24.08366964883469</v>
+        <v>16.74772563314036</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.11999751532578</v>
+        <v>18.57784818153788</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.419766623839402</v>
+        <v>6.200138754751534</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.382780684292974</v>
+        <v>8.463605230739299</v>
       </c>
       <c r="E14">
-        <v>12.47903740443689</v>
+        <v>13.5874533643788</v>
       </c>
       <c r="F14">
-        <v>33.78930466628572</v>
+        <v>37.51255231763017</v>
       </c>
       <c r="G14">
-        <v>43.47842770182425</v>
+        <v>42.89425059653287</v>
       </c>
       <c r="H14">
-        <v>12.28869426568567</v>
+        <v>17.30529219196842</v>
       </c>
       <c r="I14">
-        <v>11.69157177320807</v>
+        <v>19.96021134222546</v>
       </c>
       <c r="J14">
-        <v>7.142429877956384</v>
+        <v>10.06912562920284</v>
       </c>
       <c r="K14">
-        <v>23.86250860533405</v>
+        <v>16.67777035219985</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.16787445128616</v>
+        <v>18.58970551197983</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.379404348065322</v>
+        <v>6.18600046604038</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.350592377629872</v>
+        <v>8.45808601796938</v>
       </c>
       <c r="E15">
-        <v>12.42353473779461</v>
+        <v>13.57863484604994</v>
       </c>
       <c r="F15">
-        <v>33.6527371325306</v>
+        <v>37.49799595143494</v>
       </c>
       <c r="G15">
-        <v>43.27819274774149</v>
+        <v>42.86557702284161</v>
       </c>
       <c r="H15">
-        <v>12.26193853340518</v>
+        <v>17.30679423919596</v>
       </c>
       <c r="I15">
-        <v>11.72362093788586</v>
+        <v>19.97059964763902</v>
       </c>
       <c r="J15">
-        <v>7.123447423306646</v>
+        <v>10.0686289417635</v>
       </c>
       <c r="K15">
-        <v>23.726285234841</v>
+        <v>16.63483124061733</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.19721422725857</v>
+        <v>18.59700296483711</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.14419760790636</v>
+        <v>6.104563697750367</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.164537247860266</v>
+        <v>8.426761914265862</v>
       </c>
       <c r="E16">
-        <v>12.10372730178998</v>
+        <v>13.5288173999359</v>
       </c>
       <c r="F16">
-        <v>32.87316391084861</v>
+        <v>37.41756306455878</v>
       </c>
       <c r="G16">
-        <v>42.13338526439102</v>
+        <v>42.7051775642058</v>
       </c>
       <c r="H16">
-        <v>12.11220275236969</v>
+        <v>17.3165098420188</v>
       </c>
       <c r="I16">
-        <v>11.9093405425715</v>
+        <v>20.03108209921493</v>
       </c>
       <c r="J16">
-        <v>7.015565843602575</v>
+        <v>10.06629531572322</v>
       </c>
       <c r="K16">
-        <v>22.93394762176744</v>
+        <v>16.38746464727595</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.36560533776843</v>
+        <v>18.63935149184713</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.9964212230638</v>
+        <v>6.054259362141436</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.048996361089033</v>
+        <v>8.407823219449392</v>
       </c>
       <c r="E17">
-        <v>11.90601132555191</v>
+        <v>13.49890675131394</v>
       </c>
       <c r="F17">
-        <v>32.39767977520832</v>
+        <v>37.37089510791662</v>
       </c>
       <c r="G17">
-        <v>41.4335126961115</v>
+        <v>42.61030620959559</v>
       </c>
       <c r="H17">
-        <v>12.02349535770728</v>
+        <v>17.32345767331143</v>
       </c>
       <c r="I17">
-        <v>12.02507651159612</v>
+        <v>20.06903583433056</v>
       </c>
       <c r="J17">
-        <v>6.95018666111401</v>
+        <v>10.06532174588737</v>
       </c>
       <c r="K17">
-        <v>22.43731919761825</v>
+        <v>16.23463316700926</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.46918489439138</v>
+        <v>18.6658048149446</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.910144583895011</v>
+        <v>6.025209058628915</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.98203531569968</v>
+        <v>8.397034608548275</v>
       </c>
       <c r="E18">
-        <v>11.79174504806662</v>
+        <v>13.4819460248451</v>
       </c>
       <c r="F18">
-        <v>32.12523133321258</v>
+        <v>37.34504068986868</v>
       </c>
       <c r="G18">
-        <v>41.0318896318219</v>
+        <v>42.55704805933736</v>
       </c>
       <c r="H18">
-        <v>11.97361019255972</v>
+        <v>17.32781638827431</v>
       </c>
       <c r="I18">
-        <v>12.09229508140941</v>
+        <v>20.09117843443791</v>
       </c>
       <c r="J18">
-        <v>6.912877821508297</v>
+        <v>10.0649303021702</v>
       </c>
       <c r="K18">
-        <v>22.14774730254517</v>
+        <v>16.14636408619326</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.52888131263524</v>
+        <v>18.68119466877394</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.880713170318401</v>
+        <v>6.015354109366064</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.959277814135864</v>
+        <v>8.393399930119532</v>
       </c>
       <c r="E19">
-        <v>11.75296443758136</v>
+        <v>13.47624553156134</v>
       </c>
       <c r="F19">
-        <v>32.03316587524949</v>
+        <v>37.33645689578553</v>
       </c>
       <c r="G19">
-        <v>40.89606975089073</v>
+        <v>42.53924179475518</v>
       </c>
       <c r="H19">
-        <v>11.95691324456644</v>
+        <v>17.32935439062394</v>
       </c>
       <c r="I19">
-        <v>12.11516476371617</v>
+        <v>20.09872926402508</v>
       </c>
       <c r="J19">
-        <v>6.900296538223677</v>
+        <v>10.06482672843634</v>
       </c>
       <c r="K19">
-        <v>22.04902502676683</v>
+        <v>16.11641825255119</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.54911582337107</v>
+        <v>18.68643544023048</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.012284733021177</v>
+        <v>6.059626648250355</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.061348401215082</v>
+        <v>8.409828521802829</v>
       </c>
       <c r="E20">
-        <v>11.92711533868882</v>
+        <v>13.50206571994016</v>
       </c>
       <c r="F20">
-        <v>32.44818911740217</v>
+        <v>37.37576086378807</v>
       </c>
       <c r="G20">
-        <v>41.50792045294784</v>
+        <v>42.62027019122283</v>
       </c>
       <c r="H20">
-        <v>12.03282027005192</v>
+        <v>17.32268053631807</v>
       </c>
       <c r="I20">
-        <v>12.01268865795614</v>
+        <v>20.06496324784283</v>
       </c>
       <c r="J20">
-        <v>6.957115818965046</v>
+        <v>10.06540794632467</v>
       </c>
       <c r="K20">
-        <v>22.49059129320705</v>
+        <v>16.25094080421847</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.45814663800735</v>
+        <v>18.66297075314229</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.439052314453376</v>
+        <v>6.206910736814854</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.398187316956354</v>
+        <v>8.466257138701588</v>
       </c>
       <c r="E21">
-        <v>12.50562121363571</v>
+        <v>13.59169463828253</v>
       </c>
       <c r="F21">
-        <v>33.85484580998197</v>
+        <v>37.51958508640597</v>
       </c>
       <c r="G21">
-        <v>43.5744922994332</v>
+        <v>42.9080691653971</v>
       </c>
       <c r="H21">
-        <v>12.30158863768514</v>
+        <v>17.30459153263255</v>
       </c>
       <c r="I21">
-        <v>11.67624026638142</v>
+        <v>19.95524668265752</v>
       </c>
       <c r="J21">
-        <v>7.151548397081132</v>
+        <v>10.06937286511176</v>
       </c>
       <c r="K21">
-        <v>23.9276262107637</v>
+        <v>16.69833673075084</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.15380907654589</v>
+        <v>18.5862155402638</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.706561742407786</v>
+        <v>6.301914984019795</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.613639395086651</v>
+        <v>8.504014914835325</v>
       </c>
       <c r="E22">
-        <v>12.87858126080019</v>
+        <v>13.65235180260154</v>
       </c>
       <c r="F22">
-        <v>34.78302284184013</v>
+        <v>37.62227315095608</v>
       </c>
       <c r="G22">
-        <v>44.9328567510408</v>
+        <v>43.10754385690409</v>
       </c>
       <c r="H22">
-        <v>12.48781779221056</v>
+        <v>17.29600624169472</v>
       </c>
       <c r="I22">
-        <v>11.46242916981986</v>
+        <v>19.88631702610348</v>
       </c>
       <c r="J22">
-        <v>7.281250304737459</v>
+        <v>10.0734602634273</v>
       </c>
       <c r="K22">
-        <v>24.8328576779792</v>
+        <v>16.98681685270799</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.95557355832347</v>
+        <v>18.53759673537901</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.564830720935021</v>
+        <v>6.251334300874325</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.499085363764124</v>
+        <v>8.483785039104204</v>
       </c>
       <c r="E23">
-        <v>12.68000390946099</v>
+        <v>13.61979189679499</v>
       </c>
       <c r="F23">
-        <v>34.28683774106904</v>
+        <v>37.56667694214088</v>
       </c>
       <c r="G23">
-        <v>44.20717235241796</v>
+        <v>43.00005332058115</v>
       </c>
       <c r="H23">
-        <v>12.38743405133465</v>
+        <v>17.30029181208788</v>
       </c>
       <c r="I23">
-        <v>11.57597203665997</v>
+        <v>19.92285238264845</v>
       </c>
       <c r="J23">
-        <v>7.211784742142358</v>
+        <v>10.07114210091245</v>
       </c>
       <c r="K23">
-        <v>24.35277510299535</v>
+        <v>16.83323942829025</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.06133525757522</v>
+        <v>18.56340458909059</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.005116945289183</v>
+        <v>6.057200499654537</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.055765708016187</v>
+        <v>8.408921614134101</v>
       </c>
       <c r="E24">
-        <v>11.91757606950219</v>
+        <v>13.50063681636595</v>
       </c>
       <c r="F24">
-        <v>32.42535099216784</v>
+        <v>37.37355801534623</v>
       </c>
       <c r="G24">
-        <v>41.47427838419422</v>
+        <v>42.61576147036956</v>
       </c>
       <c r="H24">
-        <v>12.02860101255086</v>
+        <v>17.32303074515704</v>
       </c>
       <c r="I24">
-        <v>12.01828709012553</v>
+        <v>20.06680345953027</v>
       </c>
       <c r="J24">
-        <v>6.953982279026155</v>
+        <v>10.06536845089728</v>
       </c>
       <c r="K24">
-        <v>22.46651961554975</v>
+        <v>16.24356937278792</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.46313657104824</v>
+        <v>18.66425146701357</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.352499475110272</v>
+        <v>5.843484340108588</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.558480210993177</v>
+        <v>8.332189463960113</v>
       </c>
       <c r="E25">
-        <v>11.07467542357574</v>
+        <v>13.38144618941377</v>
       </c>
       <c r="F25">
-        <v>30.45772821976247</v>
+        <v>37.20305037199115</v>
       </c>
       <c r="G25">
-        <v>38.562776434456</v>
+        <v>42.25141984664489</v>
       </c>
       <c r="H25">
-        <v>11.68475158695715</v>
+        <v>17.36141010510682</v>
       </c>
       <c r="I25">
-        <v>12.52017762134332</v>
+        <v>20.23403499717663</v>
       </c>
       <c r="J25">
-        <v>6.687230501548176</v>
+        <v>10.0655850263689</v>
       </c>
       <c r="K25">
-        <v>20.28135474849271</v>
+        <v>15.5940434929981</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.90133240829555</v>
+        <v>18.77971264600611</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.683658814236868</v>
+        <v>6.830186201091371</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.279395454628119</v>
+        <v>6.177509589952786</v>
       </c>
       <c r="E2">
-        <v>13.30210991916849</v>
+        <v>10.43893041628687</v>
       </c>
       <c r="F2">
-        <v>37.11039070033118</v>
+        <v>29.04772377471379</v>
       </c>
       <c r="G2">
-        <v>42.02745061849008</v>
+        <v>36.45672317134504</v>
       </c>
       <c r="H2">
-        <v>17.40151863775981</v>
+        <v>11.46625132211053</v>
       </c>
       <c r="I2">
-        <v>20.36751465146092</v>
+        <v>12.91006711573148</v>
       </c>
       <c r="J2">
-        <v>10.07129936889861</v>
+        <v>6.500694057651205</v>
       </c>
       <c r="K2">
-        <v>15.10813732258622</v>
+        <v>18.53787724246488</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.87054176394461</v>
+        <v>12.23006355980588</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.574485982242754</v>
+        <v>6.450433220429081</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.246043383262229</v>
+        <v>5.911242169546908</v>
       </c>
       <c r="E3">
-        <v>13.25377573637131</v>
+        <v>10.00055283589807</v>
       </c>
       <c r="F3">
-        <v>37.06822747821502</v>
+        <v>28.1193589947468</v>
       </c>
       <c r="G3">
-        <v>41.90373264459933</v>
+        <v>35.05808353387675</v>
       </c>
       <c r="H3">
-        <v>17.4360548641228</v>
+        <v>11.3384997252442</v>
       </c>
       <c r="I3">
-        <v>20.46446283322906</v>
+        <v>13.18669318818415</v>
       </c>
       <c r="J3">
-        <v>10.07863977131413</v>
+        <v>6.380550170287208</v>
       </c>
       <c r="K3">
-        <v>14.77623572043987</v>
+        <v>17.27004480006428</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.93575989485557</v>
+        <v>12.45752299697025</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.507272574952419</v>
+        <v>6.204715764581245</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.226798883426534</v>
+        <v>5.744273894214066</v>
       </c>
       <c r="E4">
-        <v>13.22683167574835</v>
+        <v>9.728507178023968</v>
       </c>
       <c r="F4">
-        <v>37.0525373902735</v>
+        <v>27.56397586634109</v>
       </c>
       <c r="G4">
-        <v>41.84171940910331</v>
+        <v>34.21563030127107</v>
       </c>
       <c r="H4">
-        <v>17.46087381353415</v>
+        <v>11.26962714475492</v>
       </c>
       <c r="I4">
-        <v>20.52720030827601</v>
+        <v>13.36259477391427</v>
       </c>
       <c r="J4">
-        <v>10.08485727369825</v>
+        <v>6.309919518807068</v>
       </c>
       <c r="K4">
-        <v>14.57194764125702</v>
+        <v>16.44832638898517</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.97762182878245</v>
+        <v>12.59975277442279</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.479874969264014</v>
+        <v>6.101463505078673</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.219272242430566</v>
+        <v>5.67544810590105</v>
       </c>
       <c r="E5">
-        <v>13.21654669785974</v>
+        <v>9.617069330771937</v>
       </c>
       <c r="F5">
-        <v>37.04870973957625</v>
+        <v>27.3415312552229</v>
       </c>
       <c r="G5">
-        <v>41.81996873482925</v>
+        <v>33.87679603850879</v>
       </c>
       <c r="H5">
-        <v>17.47189424884663</v>
+        <v>11.24389553795871</v>
       </c>
       <c r="I5">
-        <v>20.55357519135529</v>
+        <v>13.43579128871902</v>
       </c>
       <c r="J5">
-        <v>10.08782104089962</v>
+        <v>6.28193278474901</v>
       </c>
       <c r="K5">
-        <v>14.48869610037789</v>
+        <v>16.10249114348355</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.99513952327376</v>
+        <v>12.65839441510013</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.475326282209581</v>
+        <v>6.084131289140105</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.218041664787084</v>
+        <v>5.663975106032821</v>
       </c>
       <c r="E6">
-        <v>13.21488106517028</v>
+        <v>9.598534976602089</v>
       </c>
       <c r="F6">
-        <v>37.04822915923859</v>
+        <v>27.30483459675305</v>
       </c>
       <c r="G6">
-        <v>41.81656993103298</v>
+        <v>33.82081419288661</v>
       </c>
       <c r="H6">
-        <v>17.47377886860014</v>
+        <v>11.23976166382262</v>
       </c>
       <c r="I6">
-        <v>20.55800361620473</v>
+        <v>13.44803688462834</v>
       </c>
       <c r="J6">
-        <v>10.0883391451227</v>
+        <v>6.277333848137621</v>
       </c>
       <c r="K6">
-        <v>14.47487575456184</v>
+        <v>16.04439958959786</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.99807606742038</v>
+        <v>12.66817400709925</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.506903061341346</v>
+        <v>6.203335849929296</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.226696091582978</v>
+        <v>5.743348735382763</v>
       </c>
       <c r="E7">
-        <v>13.22669014564817</v>
+        <v>9.727006416335607</v>
       </c>
       <c r="F7">
-        <v>37.05247537831821</v>
+        <v>27.56095993210891</v>
       </c>
       <c r="G7">
-        <v>41.84141180605574</v>
+        <v>34.21104205128002</v>
       </c>
       <c r="H7">
-        <v>17.46101877156688</v>
+        <v>11.26927076390731</v>
       </c>
       <c r="I7">
-        <v>20.52755273224425</v>
+        <v>13.36357579952328</v>
       </c>
       <c r="J7">
-        <v>10.08489550282986</v>
+        <v>6.309538849591825</v>
       </c>
       <c r="K7">
-        <v>14.57082472699112</v>
+        <v>16.44370691285999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.97785621960525</v>
+        <v>12.60054082933187</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.646076002329227</v>
+        <v>6.701869629584229</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.267642923506267</v>
+        <v>6.086472752930852</v>
       </c>
       <c r="E8">
-        <v>13.2848818085804</v>
+        <v>10.28845793397241</v>
       </c>
       <c r="F8">
-        <v>37.09373787276891</v>
+        <v>28.72470250433394</v>
       </c>
       <c r="G8">
-        <v>41.98190618429698</v>
+        <v>35.97129859462359</v>
       </c>
       <c r="H8">
-        <v>17.41267548972939</v>
+        <v>11.42017514005467</v>
       </c>
       <c r="I8">
-        <v>20.40027683290328</v>
+        <v>13.00418682627043</v>
       </c>
       <c r="J8">
-        <v>10.07347534959448</v>
+        <v>6.458621392369689</v>
       </c>
       <c r="K8">
-        <v>14.99387396143098</v>
+        <v>18.10964681847383</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.89265263021509</v>
+        <v>12.30798075686253</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.91594504241557</v>
+        <v>7.578852449469031</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.357477621116194</v>
+        <v>6.728422177489886</v>
       </c>
       <c r="E9">
-        <v>13.4203125374924</v>
+        <v>11.36116342795743</v>
       </c>
       <c r="F9">
-        <v>37.25539894736926</v>
+        <v>31.11484903729892</v>
       </c>
       <c r="G9">
-        <v>42.36733683780901</v>
+        <v>39.53822541789806</v>
       </c>
       <c r="H9">
-        <v>17.34663660016767</v>
+        <v>11.79502371669385</v>
       </c>
       <c r="I9">
-        <v>20.17609965541263</v>
+        <v>12.34790225864738</v>
       </c>
       <c r="J9">
-        <v>10.06464980082853</v>
+        <v>6.775565745940416</v>
       </c>
       <c r="K9">
-        <v>15.81430378368819</v>
+        <v>21.03800743256834</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.7399205681546</v>
+        <v>11.75290359647417</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.110287215314509</v>
+        <v>8.160886446835889</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.428936928284569</v>
+        <v>7.177652057759273</v>
       </c>
       <c r="E10">
-        <v>13.53226306894778</v>
+        <v>12.12621302651088</v>
       </c>
       <c r="F10">
-        <v>37.42302171568416</v>
+        <v>32.92755866398969</v>
       </c>
       <c r="G10">
-        <v>42.71617956763777</v>
+        <v>42.21336833436798</v>
       </c>
       <c r="H10">
-        <v>17.31576619978287</v>
+        <v>12.12248045437788</v>
       </c>
       <c r="I10">
-        <v>20.02679364886821</v>
+        <v>11.89622323525967</v>
       </c>
       <c r="J10">
-        <v>10.06642922879455</v>
+        <v>7.023066056059123</v>
       </c>
       <c r="K10">
-        <v>16.40485201988621</v>
+        <v>22.99008787020594</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.63635660974951</v>
+        <v>11.35380116514852</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.19743676124112</v>
+        <v>8.412063241861489</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.462548628103788</v>
+        <v>7.376631532058794</v>
       </c>
       <c r="E11">
-        <v>13.58576424427437</v>
+        <v>12.46843042065141</v>
       </c>
       <c r="F11">
-        <v>37.50975718487668</v>
+        <v>33.76317710597713</v>
       </c>
       <c r="G11">
-        <v>42.88875226818151</v>
+        <v>43.44012647105386</v>
       </c>
       <c r="H11">
-        <v>17.30557513893325</v>
+        <v>12.28356370558645</v>
       </c>
       <c r="I11">
-        <v>19.96219422534584</v>
+        <v>11.69769248444627</v>
       </c>
       <c r="J11">
-        <v>10.06902866499</v>
+        <v>7.138796370043607</v>
       </c>
       <c r="K11">
-        <v>16.66956432868316</v>
+        <v>23.83650345335444</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.59109896139172</v>
+        <v>11.17348425910919</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.230225509238973</v>
+        <v>8.505221073678326</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.475427975701935</v>
+        <v>7.451177072112633</v>
       </c>
       <c r="E12">
-        <v>13.60638179529112</v>
+        <v>12.59714222887921</v>
       </c>
       <c r="F12">
-        <v>37.54409447838453</v>
+        <v>34.08112481632746</v>
       </c>
       <c r="G12">
-        <v>42.95605810749375</v>
+        <v>43.90599843823507</v>
       </c>
       <c r="H12">
-        <v>17.30227126196829</v>
+        <v>12.34637091600472</v>
       </c>
       <c r="I12">
-        <v>19.93820824504147</v>
+        <v>11.6235513078919</v>
       </c>
       <c r="J12">
-        <v>10.07026975836167</v>
+        <v>7.183071558535715</v>
       </c>
       <c r="K12">
-        <v>16.76913991145685</v>
+        <v>24.15118462037888</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.5742260764844</v>
+        <v>11.10532186283915</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.223173824145987</v>
+        <v>8.485244926690907</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.472647569294216</v>
+        <v>7.435158478951492</v>
       </c>
       <c r="E13">
-        <v>13.60192572603251</v>
+        <v>12.56946139372018</v>
       </c>
       <c r="F13">
-        <v>37.53663321338819</v>
+        <v>34.01258217837923</v>
       </c>
       <c r="G13">
-        <v>42.94147626399247</v>
+        <v>43.80560619450483</v>
       </c>
       <c r="H13">
-        <v>17.30295809691356</v>
+        <v>12.33276276169547</v>
       </c>
       <c r="I13">
-        <v>19.94335288301977</v>
+        <v>11.63947201616182</v>
       </c>
       <c r="J13">
-        <v>10.06999105984407</v>
+        <v>7.173516039358395</v>
       </c>
       <c r="K13">
-        <v>16.74772563314036</v>
+        <v>24.08366964883473</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.57784818153788</v>
+        <v>11.11999751532578</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.200138754751534</v>
+        <v>8.41976662383944</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.463605230739299</v>
+        <v>7.382780684292957</v>
       </c>
       <c r="E14">
-        <v>13.5874533643788</v>
+        <v>12.47903740443688</v>
       </c>
       <c r="F14">
-        <v>37.51255231763017</v>
+        <v>33.78930466628567</v>
       </c>
       <c r="G14">
-        <v>42.89425059653287</v>
+        <v>43.47842770182422</v>
       </c>
       <c r="H14">
-        <v>17.30529219196842</v>
+        <v>12.28869426568567</v>
       </c>
       <c r="I14">
-        <v>19.96021134222546</v>
+        <v>11.69157177320797</v>
       </c>
       <c r="J14">
-        <v>10.06912562920284</v>
+        <v>7.142429877956364</v>
       </c>
       <c r="K14">
-        <v>16.67777035219985</v>
+        <v>23.86250860533415</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.58970551197983</v>
+        <v>11.16787445128613</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.18600046604038</v>
+        <v>8.379404348065286</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.45808601796938</v>
+        <v>7.35059237762984</v>
       </c>
       <c r="E15">
-        <v>13.57863484604994</v>
+        <v>12.42353473779458</v>
       </c>
       <c r="F15">
-        <v>37.49799595143494</v>
+        <v>33.65273713253056</v>
       </c>
       <c r="G15">
-        <v>42.86557702284161</v>
+        <v>43.27819274774155</v>
       </c>
       <c r="H15">
-        <v>17.30679423919596</v>
+        <v>12.26193853340515</v>
       </c>
       <c r="I15">
-        <v>19.97059964763902</v>
+        <v>11.72362093788592</v>
       </c>
       <c r="J15">
-        <v>10.0686289417635</v>
+        <v>7.123447423306622</v>
       </c>
       <c r="K15">
-        <v>16.63483124061733</v>
+        <v>23.72628523484104</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.59700296483711</v>
+        <v>11.19721422725857</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.104563697750367</v>
+        <v>8.144197607906332</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.426761914265862</v>
+        <v>7.164537247860268</v>
       </c>
       <c r="E16">
-        <v>13.5288173999359</v>
+        <v>12.10372730178994</v>
       </c>
       <c r="F16">
-        <v>37.41756306455878</v>
+        <v>32.87316391084861</v>
       </c>
       <c r="G16">
-        <v>42.7051775642058</v>
+        <v>42.13338526439097</v>
       </c>
       <c r="H16">
-        <v>17.3165098420188</v>
+        <v>12.1122027523697</v>
       </c>
       <c r="I16">
-        <v>20.03108209921493</v>
+        <v>11.9093405425715</v>
       </c>
       <c r="J16">
-        <v>10.06629531572322</v>
+        <v>7.015565843602513</v>
       </c>
       <c r="K16">
-        <v>16.38746464727595</v>
+        <v>22.93394762176747</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.63935149184713</v>
+        <v>11.3656053377684</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.054259362141436</v>
+        <v>7.996421223063761</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.407823219449392</v>
+        <v>7.04899636108897</v>
       </c>
       <c r="E17">
-        <v>13.49890675131394</v>
+        <v>11.90601132555187</v>
       </c>
       <c r="F17">
-        <v>37.37089510791662</v>
+        <v>32.39767977520822</v>
       </c>
       <c r="G17">
-        <v>42.61030620959559</v>
+        <v>41.43351269611145</v>
       </c>
       <c r="H17">
-        <v>17.32345767331143</v>
+        <v>12.02349535770722</v>
       </c>
       <c r="I17">
-        <v>20.06903583433056</v>
+        <v>12.02507651159606</v>
       </c>
       <c r="J17">
-        <v>10.06532174588737</v>
+        <v>6.95018666111401</v>
       </c>
       <c r="K17">
-        <v>16.23463316700926</v>
+        <v>22.43731919761834</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.6658048149446</v>
+        <v>11.46918489439132</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.025209058628915</v>
+        <v>7.910144583894878</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.397034608548275</v>
+        <v>6.982035315699651</v>
       </c>
       <c r="E18">
-        <v>13.4819460248451</v>
+        <v>11.79174504806663</v>
       </c>
       <c r="F18">
-        <v>37.34504068986868</v>
+        <v>32.12523133321255</v>
       </c>
       <c r="G18">
-        <v>42.55704805933736</v>
+        <v>41.03188963182192</v>
       </c>
       <c r="H18">
-        <v>17.32781638827431</v>
+        <v>11.97361019255971</v>
       </c>
       <c r="I18">
-        <v>20.09117843443791</v>
+        <v>12.09229508140954</v>
       </c>
       <c r="J18">
-        <v>10.0649303021702</v>
+        <v>6.912877821508302</v>
       </c>
       <c r="K18">
-        <v>16.14636408619326</v>
+        <v>22.14774730254519</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.68119466877394</v>
+        <v>11.52888131263524</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.015354109366064</v>
+        <v>7.88071317031844</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.393399930119532</v>
+        <v>6.959277814135858</v>
       </c>
       <c r="E19">
-        <v>13.47624553156134</v>
+        <v>11.75296443758136</v>
       </c>
       <c r="F19">
-        <v>37.33645689578553</v>
+        <v>32.03316587524942</v>
       </c>
       <c r="G19">
-        <v>42.53924179475518</v>
+        <v>40.89606975089067</v>
       </c>
       <c r="H19">
-        <v>17.32935439062394</v>
+        <v>11.95691324456641</v>
       </c>
       <c r="I19">
-        <v>20.09872926402508</v>
+        <v>12.11516476371611</v>
       </c>
       <c r="J19">
-        <v>10.06482672843634</v>
+        <v>6.900296538223682</v>
       </c>
       <c r="K19">
-        <v>16.11641825255119</v>
+        <v>22.04902502676689</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.68643544023048</v>
+        <v>11.54911582337103</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.059626648250355</v>
+        <v>8.01228473302114</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.409828521802829</v>
+        <v>7.061348401215082</v>
       </c>
       <c r="E20">
-        <v>13.50206571994016</v>
+        <v>11.9271153386888</v>
       </c>
       <c r="F20">
-        <v>37.37576086378807</v>
+        <v>32.44818911740215</v>
       </c>
       <c r="G20">
-        <v>42.62027019122283</v>
+        <v>41.50792045294784</v>
       </c>
       <c r="H20">
-        <v>17.32268053631807</v>
+        <v>12.03282027005192</v>
       </c>
       <c r="I20">
-        <v>20.06496324784283</v>
+        <v>12.01268865795623</v>
       </c>
       <c r="J20">
-        <v>10.06540794632467</v>
+        <v>6.957115818965025</v>
       </c>
       <c r="K20">
-        <v>16.25094080421847</v>
+        <v>22.49059129320708</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.66297075314229</v>
+        <v>11.45814663800738</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.206910736814854</v>
+        <v>8.439052314453411</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.466257138701588</v>
+        <v>7.398187316956347</v>
       </c>
       <c r="E21">
-        <v>13.59169463828253</v>
+        <v>12.50562121363569</v>
       </c>
       <c r="F21">
-        <v>37.51958508640597</v>
+        <v>33.85484580998197</v>
       </c>
       <c r="G21">
-        <v>42.9080691653971</v>
+        <v>43.57449229943324</v>
       </c>
       <c r="H21">
-        <v>17.30459153263255</v>
+        <v>12.30158863768512</v>
       </c>
       <c r="I21">
-        <v>19.95524668265752</v>
+        <v>11.67624026638137</v>
       </c>
       <c r="J21">
-        <v>10.06937286511176</v>
+        <v>7.151548397081145</v>
       </c>
       <c r="K21">
-        <v>16.69833673075084</v>
+        <v>23.92762621076374</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.5862155402638</v>
+        <v>11.15380907654589</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.301914984019795</v>
+        <v>8.70656174240775</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.504014914835325</v>
+        <v>7.613639395086666</v>
       </c>
       <c r="E22">
-        <v>13.65235180260154</v>
+        <v>12.87858126080019</v>
       </c>
       <c r="F22">
-        <v>37.62227315095608</v>
+        <v>34.78302284184015</v>
       </c>
       <c r="G22">
-        <v>43.10754385690409</v>
+        <v>44.93285675104081</v>
       </c>
       <c r="H22">
-        <v>17.29600624169472</v>
+        <v>12.48781779221057</v>
       </c>
       <c r="I22">
-        <v>19.88631702610348</v>
+        <v>11.46242916981993</v>
       </c>
       <c r="J22">
-        <v>10.0734602634273</v>
+        <v>7.281250304737497</v>
       </c>
       <c r="K22">
-        <v>16.98681685270799</v>
+        <v>24.83285767797916</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.53759673537901</v>
+        <v>10.95557355832347</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.251334300874325</v>
+        <v>8.564830720934987</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.483785039104204</v>
+        <v>7.499085363764109</v>
       </c>
       <c r="E23">
-        <v>13.61979189679499</v>
+        <v>12.68000390946097</v>
       </c>
       <c r="F23">
-        <v>37.56667694214088</v>
+        <v>34.28683774106906</v>
       </c>
       <c r="G23">
-        <v>43.00005332058115</v>
+        <v>44.20717235241799</v>
       </c>
       <c r="H23">
-        <v>17.30029181208788</v>
+        <v>12.38743405133467</v>
       </c>
       <c r="I23">
-        <v>19.92285238264845</v>
+        <v>11.57597203666006</v>
       </c>
       <c r="J23">
-        <v>10.07114210091245</v>
+        <v>7.21178474214233</v>
       </c>
       <c r="K23">
-        <v>16.83323942829025</v>
+        <v>24.35277510299538</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.56340458909059</v>
+        <v>11.06133525757529</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.057200499654537</v>
+        <v>8.005116945289123</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.408921614134101</v>
+        <v>7.055765708016165</v>
       </c>
       <c r="E24">
-        <v>13.50063681636595</v>
+        <v>11.91757606950215</v>
       </c>
       <c r="F24">
-        <v>37.37355801534623</v>
+        <v>32.42535099216786</v>
       </c>
       <c r="G24">
-        <v>42.61576147036956</v>
+        <v>41.47427838419425</v>
       </c>
       <c r="H24">
-        <v>17.32303074515704</v>
+        <v>12.02860101255093</v>
       </c>
       <c r="I24">
-        <v>20.06680345953027</v>
+        <v>12.01828709012553</v>
       </c>
       <c r="J24">
-        <v>10.06536845089728</v>
+        <v>6.953982279026108</v>
       </c>
       <c r="K24">
-        <v>16.24356937278792</v>
+        <v>22.46651961554975</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.66425146701357</v>
+        <v>11.46313657104818</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.843484340108588</v>
+        <v>7.352499475110277</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.332189463960113</v>
+        <v>6.558480210993157</v>
       </c>
       <c r="E25">
-        <v>13.38144618941377</v>
+        <v>11.07467542357574</v>
       </c>
       <c r="F25">
-        <v>37.20305037199115</v>
+        <v>30.45772821976235</v>
       </c>
       <c r="G25">
-        <v>42.25141984664489</v>
+        <v>38.56277643445596</v>
       </c>
       <c r="H25">
-        <v>17.36141010510682</v>
+        <v>11.68475158695711</v>
       </c>
       <c r="I25">
-        <v>20.23403499717663</v>
+        <v>12.52017762134332</v>
       </c>
       <c r="J25">
-        <v>10.0655850263689</v>
+        <v>6.687230501548182</v>
       </c>
       <c r="K25">
-        <v>15.5940434929981</v>
+        <v>20.28135474849278</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.77971264600611</v>
+        <v>11.90133240829555</v>
       </c>
       <c r="O25">
         <v>0</v>
